--- a/학습자료/단답형/객관식_한국사_대조_6좌평.xlsx
+++ b/학습자료/단답형/객관식_한국사_대조_6좌평.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>왕명 출납
-1. 병관좌평
-2. 내신좌평
-3. 조정좌평</t>
+1. 조정좌평
+2. 병관좌평
+3. 내신좌평</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 내신좌평</t>
+          <t>3, 내신좌평</t>
         </is>
       </c>
     </row>
@@ -464,8 +464,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>재정
-1. 위사좌평
-2. 조정좌평
+1. 내법좌평
+2. 내신좌평
 3. 내두좌평</t>
         </is>
       </c>
@@ -480,13 +480,13 @@
         <is>
           <t>의례
 1. 위사좌평
-2. 내법좌평
-3. 병관좌평</t>
+2. 내두좌평
+3. 내법좌평</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 내법좌평</t>
+          <t>3, 내법좌평</t>
         </is>
       </c>
     </row>
@@ -494,9 +494,9 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>숙위(왕실과 수도 방어)
-1. 조정좌평
+1. 내법좌평
 2. 위사좌평
-3. 내두좌평</t>
+3. 병관좌평</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>법률, 형옥
-1. 내법좌평
-2. 조정좌평
-3. 병관좌평</t>
+1. 조정좌평
+2. 내신좌평
+3. 위사좌평</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 조정좌평</t>
+          <t>1, 조정좌평</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>지방군 총괄
-1. 병관좌평
-2. 내신좌평
-3. 위사좌평</t>
+1. 내신좌평
+2. 병관좌평
+3. 조정좌평</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 병관좌평</t>
+          <t>2, 병관좌평</t>
         </is>
       </c>
     </row>
